--- a/PowerBI/customers_spendings/train.xlsx
+++ b/PowerBI/customers_spendings/train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Coding\Portfolio\PowerBI\customers_spendings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csposta-my.sharepoint.com/personal/bilek_martin_2_cpost_cz/Documents/WORK/Projects/Repos/power_bi/train_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D9772-2313-485A-A563-F5DED34CC669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0AC81BB1-D3D8-419D-9448-724568C5C33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137BD385-DFA2-491B-B399-389BB50B1CBB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50CFCD77-B18A-4218-80AB-B98BDD563518}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50CFCD77-B18A-4218-80AB-B98BDD563518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
@@ -146,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,19 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EC931B-CBFC-429A-90A3-B2A34D3159AB}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44197</v>
       </c>
@@ -497,7 +505,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44198</v>
       </c>
@@ -520,7 +528,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44228</v>
       </c>
@@ -543,7 +551,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44229</v>
       </c>
@@ -566,7 +574,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44256</v>
       </c>
@@ -589,7 +597,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44562</v>
       </c>
@@ -612,7 +620,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44563</v>
       </c>
@@ -635,7 +643,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44593</v>
       </c>
@@ -658,7 +666,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44594</v>
       </c>
@@ -681,7 +689,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44621</v>
       </c>
@@ -704,7 +712,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44927</v>
       </c>
@@ -727,7 +735,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44928</v>
       </c>
@@ -750,7 +758,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44958</v>
       </c>
@@ -773,7 +781,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44959</v>
       </c>
@@ -796,9 +804,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>44959</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45352</v>
       </c>
       <c r="B16" s="4">
         <v>360</v>
@@ -808,18 +816,18 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ref="D16" si="7">WEEKNUM(A16)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ref="E16" si="8">MONTH(A16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16" si="9">YEAR(A16)</f>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44986</v>
       </c>
@@ -842,7 +850,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45292</v>
       </c>
@@ -865,7 +873,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45293</v>
       </c>
@@ -888,7 +896,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45323</v>
       </c>
@@ -911,7 +919,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45324</v>
       </c>
@@ -934,7 +942,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45352</v>
       </c>
@@ -954,6 +962,47 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B25" s="2">
+        <v>666</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="12">WEEKNUM(A25)</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25" si="13">MONTH(A25)</f>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="14">YEAR(A25)</f>
         <v>2024</v>
       </c>
     </row>
